--- a/Team-Data/2007-08/3-16-2007-08.xlsx
+++ b/Team-Data/2007-08/3-16-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.424</v>
+        <v>0.415</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J2" t="n">
         <v>79.7</v>
@@ -696,7 +763,7 @@
         <v>12.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O2" t="n">
         <v>21</v>
@@ -711,19 +778,19 @@
         <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U2" t="n">
         <v>21.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>5.7</v>
@@ -738,37 +805,37 @@
         <v>21.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>28</v>
@@ -813,13 +880,13 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC2" t="n">
         <v>20</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>9</v>
@@ -968,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.364</v>
+        <v>0.369</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.446</v>
@@ -1057,25 +1124,25 @@
         <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N4" t="n">
         <v>0.366</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="R4" t="n">
         <v>11.2</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
         <v>40.7</v>
@@ -1090,7 +1157,7 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
@@ -1102,19 +1169,19 @@
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1132,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1141,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1165,10 +1232,10 @@
         <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1326,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1341,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1365,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1421,13 +1488,13 @@
         <v>7.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
         <v>25.3</v>
@@ -1439,13 +1506,13 @@
         <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.2</v>
@@ -1454,13 +1521,13 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y6" t="n">
         <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
         <v>20.4</v>
@@ -1469,10 +1536,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1496,16 +1563,16 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1526,25 +1593,25 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>22</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.657</v>
+        <v>0.652</v>
       </c>
       <c r="H7" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I7" t="n">
         <v>36.8</v>
       </c>
       <c r="J7" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1609,31 +1676,31 @@
         <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>4.9</v>
@@ -1642,22 +1709,22 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB7" t="n">
         <v>100.4</v>
       </c>
       <c r="AC7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD7" t="n">
         <v>5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>3</v>
-      </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1678,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
         <v>18</v>
@@ -1687,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1723,13 +1790,13 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>11.7</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U8" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.1</v>
@@ -1818,25 +1885,25 @@
         <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.9</v>
+        <v>108</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,25 +1915,25 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1887,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>22</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.727</v>
+        <v>0.723</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,25 +2025,25 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.367</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.762</v>
@@ -1985,7 +2052,7 @@
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
         <v>41.1</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,46 +2097,46 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.697</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,28 +2389,28 @@
         <v>36.9</v>
       </c>
       <c r="J11" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.452</v>
       </c>
       <c r="L11" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N11" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
@@ -2361,7 +2428,7 @@
         <v>14.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
         <v>5.4</v>
@@ -2376,13 +2443,13 @@
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2394,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2406,13 +2473,13 @@
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
@@ -2436,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
@@ -2448,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2603,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2624,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2770,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
@@ -2779,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2803,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>16</v>
@@ -2812,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
@@ -2889,7 +2956,7 @@
         <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
@@ -2901,10 +2968,10 @@
         <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W14" t="n">
         <v>8.199999999999999</v>
@@ -2916,40 +2983,40 @@
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
         <v>4</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>6</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -2979,10 +3046,10 @@
         <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -3000,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" t="n">
-        <v>0.169</v>
+        <v>0.172</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
         <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="U16" t="n">
         <v>20.2</v>
@@ -3271,7 +3338,7 @@
         <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>4.2</v>
@@ -3280,19 +3347,19 @@
         <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
         <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3537,7 +3604,7 @@
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
         <v>18</v>
@@ -3546,7 +3613,7 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3692,16 +3759,16 @@
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,10 +3929,10 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
         <v>20</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>25</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
@@ -3889,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
         <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.677</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.463</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
         <v>42.6</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
         <v>12.3</v>
@@ -4008,25 +4075,25 @@
         <v>4.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
         <v>5</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>5</v>
@@ -4062,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
@@ -4071,19 +4138,19 @@
         <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,43 +4209,43 @@
         <v>35.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.5</v>
+        <v>80.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
         <v>17.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
         <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.725</v>
+        <v>0.729</v>
       </c>
       <c r="R21" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
         <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W21" t="n">
         <v>6.1</v>
@@ -4190,19 +4257,19 @@
         <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4241,13 +4308,13 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>28</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4484,7 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -4620,13 +4687,13 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4638,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>5</v>
@@ -4796,13 +4863,13 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -4936,10 +5003,10 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4954,10 +5021,10 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
         <v>6</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
         <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.455</v>
+        <v>0.446</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
         <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
         <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
         <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W26" t="n">
         <v>7.9</v>
@@ -5100,19 +5167,19 @@
         <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5139,10 +5206,10 @@
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,13 +5221,13 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5306,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5327,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5336,7 +5403,7 @@
         <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5357,7 +5424,7 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>0.239</v>
+        <v>0.242</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.445</v>
@@ -5428,67 +5495,67 @@
         <v>11.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O28" t="n">
         <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
         <v>44.9</v>
       </c>
       <c r="U28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>16.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
         <v>20.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5515,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>11</v>
@@ -5542,13 +5609,13 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,13 +5665,13 @@
         <v>38.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.467</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
         <v>18.2</v>
@@ -5613,13 +5680,13 @@
         <v>0.404</v>
       </c>
       <c r="O29" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.800000000000001</v>
@@ -5646,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA29" t="n">
         <v>18.5</v>
@@ -5655,10 +5722,10 @@
         <v>100.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5667,10 +5734,10 @@
         <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5694,31 +5761,31 @@
         <v>26</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6046,13 +6113,13 @@
         <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6079,10 +6146,10 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-16-2007-08</t>
+          <t>2008-03-16</t>
         </is>
       </c>
     </row>
